--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814219.41019119</v>
+        <v>811611.7857554519</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4507704.360022028</v>
+        <v>4507704.360022027</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6569464.317321316</v>
+        <v>6569464.317321317</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>82.37451588184473</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>259.912818398927</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -721,7 +721,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -752,7 +752,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>93.11323406457223</v>
       </c>
       <c r="H3" t="n">
         <v>52.84233230531351</v>
@@ -794,7 +794,7 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>182.92051411956</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>15.36201155791241</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>209.5079921517154</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,19 +898,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>366.2471768685367</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>54.51163916463825</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -977,7 +977,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476705</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19.98493129715717</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>131.2127360445743</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>331.1215946474468</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>57.58222058300022</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>22.35454463011299</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>19.20130855525881</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>42.31083784093021</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>399.1130476160062</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>89.17225193716885</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>68.75777077803107</v>
+        <v>68.75777077803106</v>
       </c>
       <c r="T12" t="n">
         <v>137.910670650556</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>47.7493046564579</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.71571549420977</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S13" t="n">
         <v>159.1887991287653</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.8632253753859</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>337.5337987646884</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T14" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>182.0773256764695</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>68.75777077803107</v>
+        <v>68.75777077803106</v>
       </c>
       <c r="T15" t="n">
         <v>137.910670650556</v>
@@ -1767,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>29.41422964919865</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.71571549420977</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S16" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T16" t="n">
-        <v>238.6393387500226</v>
+        <v>180.6184981092822</v>
       </c>
       <c r="U16" t="n">
         <v>277.3536684970859</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>31.69817253913777</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>399.1130476160062</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U17" t="n">
         <v>255.6767503759167</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>298.9387113418778</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>68.75777077803107</v>
+        <v>68.75777077803106</v>
       </c>
       <c r="T18" t="n">
         <v>137.910670650556</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>106.0430748784012</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.71571549420977</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S19" t="n">
         <v>159.1887991287653</v>
       </c>
       <c r="T19" t="n">
-        <v>238.6393387500226</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3536684970859</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>239.0532671913597</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>102.694004779998</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>129.1317206306929</v>
+        <v>399.1130476160062</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>213.5393779397139</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.0639155191421</v>
       </c>
       <c r="H22" t="n">
-        <v>112.1223158424448</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>277.3536684970859</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0.4139284413373343</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2484,7 +2484,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>106.5252831479347</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>164.0639155191421</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>159.1887991287653</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>16.33917100670808</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2557,10 +2557,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>219.2781592457195</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>399.1130476160062</v>
       </c>
       <c r="H26" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>332.4994785731678</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>23.22530767846811</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>159.1887991287653</v>
@@ -2772,7 +2772,7 @@
         <v>277.3536684970859</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>160.7714603715874</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2794,22 +2794,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>292.1733177098803</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>399.1130476160062</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>255.6767503759167</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>172.2126277325632</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,7 +2958,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>46.42323144221086</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2967,7 +2967,7 @@
         <v>164.0639155191421</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42570118427103</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>82.81776719993368</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>159.1887991287653</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>399.1130476160062</v>
+        <v>118.2587213777042</v>
       </c>
       <c r="H32" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T32" t="n">
-        <v>132.5152066623165</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U32" t="n">
         <v>255.6767503759167</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H34" t="n">
-        <v>23.22530767846811</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I34" t="n">
         <v>82.81776719993368</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>159.1887991287653</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>238.6393387500226</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3536684970859</v>
+        <v>180.7777588433478</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.1843318262048</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>76.37457290169868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>121.1897838069892</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>159.1887991287653</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>238.6393387500226</v>
       </c>
       <c r="U37" t="n">
-        <v>183.2725648590788</v>
+        <v>180.7777588433473</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>150.5953823823121</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>214.9623331574306</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T38" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6767503759167</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>156.5789408695961</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3675,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.0639155191421</v>
       </c>
       <c r="H40" t="n">
-        <v>23.225307678468</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I40" t="n">
         <v>82.81776719993368</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>159.1887991287653</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3793,19 +3793,19 @@
         <v>76.37457290169868</v>
       </c>
       <c r="T41" t="n">
-        <v>213.5393779397139</v>
+        <v>158.191940691565</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>310.023979239784</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.637857831094</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,7 +3915,7 @@
         <v>164.0639155191421</v>
       </c>
       <c r="H43" t="n">
-        <v>137.64181643604</v>
+        <v>43.56071279803268</v>
       </c>
       <c r="I43" t="n">
         <v>82.81776719993368</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,13 +3982,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>399.1130476160062</v>
@@ -4033,10 +4033,10 @@
         <v>213.5393779397139</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6767503759167</v>
+        <v>105.3514806267685</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.3427324812575</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>131.9106708018111</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>161.7423386892896</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.0639155191421</v>
@@ -4155,7 +4155,7 @@
         <v>137.64181643604</v>
       </c>
       <c r="I46" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>22.71571549420976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>159.1887991287653</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587.6539570612983</v>
+        <v>1100.603583589459</v>
       </c>
       <c r="C2" t="n">
-        <v>160.7532270745984</v>
+        <v>673.7028536027588</v>
       </c>
       <c r="D2" t="n">
-        <v>141.5010103000028</v>
+        <v>654.4506368281631</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>632.5141010164247</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>369.9759006134681</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I2" t="n">
         <v>36.91199246082674</v>
@@ -4336,46 +4336,46 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L2" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U2" t="n">
-        <v>1366.319142682382</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V2" t="n">
-        <v>1008.829727808632</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="W2" t="n">
-        <v>612.4383781089787</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="X2" t="n">
-        <v>604.75878331713</v>
+        <v>1117.70840984529</v>
       </c>
       <c r="Y2" t="n">
-        <v>603.4619173124244</v>
+        <v>1116.411543840584</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G3" t="n">
         <v>90.28808569851715</v>
@@ -4406,28 +4406,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="M3" t="n">
-        <v>493.6978991635576</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="N3" t="n">
+        <v>501.1445421254695</v>
+      </c>
+      <c r="O3" t="n">
         <v>850.0084995511718</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1306.794406253903</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
         <v>1763.580312956634</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>969.3533286711265</v>
+        <v>704.55571511241</v>
       </c>
       <c r="C4" t="n">
-        <v>797.3807655500425</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D4" t="n">
-        <v>634.0639926768132</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E4" t="n">
-        <v>467.8557868296667</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F4" t="n">
-        <v>295.9940126042271</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4518,22 +4518,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1628.425962247645</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1628.425962247645</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W4" t="n">
-        <v>1628.425962247645</v>
+        <v>1173.462379976863</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.86206569345</v>
+        <v>930.8984834226679</v>
       </c>
       <c r="Y4" t="n">
-        <v>1159.519297383192</v>
+        <v>704.55571511241</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>965.3211864711365</v>
+        <v>1312.407503826393</v>
       </c>
       <c r="C5" t="n">
         <v>942.4608605248407</v>
@@ -4552,10 +4552,10 @@
         <v>519.1682397098409</v>
       </c>
       <c r="E5" t="n">
-        <v>497.2317038981026</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F5" t="n">
-        <v>476.1479261279069</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G5" t="n">
         <v>71.80886371735554</v>
@@ -4567,52 +4567,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1790.537361258874</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1790.537361258874</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1790.537361258874</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1394.146011559221</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>982.4260127269681</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1291467222625</v>
+        <v>1328.215464077519</v>
       </c>
     </row>
     <row r="6">
@@ -4625,31 +4625,31 @@
         <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254695</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
         <v>850.0084995511718</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.6237704712602</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C7" t="n">
-        <v>386.6237704712602</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D7" t="n">
-        <v>223.3069975980309</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E7" t="n">
-        <v>57.09879175088449</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F7" t="n">
-        <v>57.09879175088449</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G7" t="n">
-        <v>57.09879175088449</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H7" t="n">
-        <v>57.09879175088449</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
@@ -4749,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1602.260275267237</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V7" t="n">
-        <v>1320.548807875266</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W7" t="n">
-        <v>1045.696404047779</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X7" t="n">
-        <v>803.1325074935838</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.7897391833259</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1158.419888549665</v>
+        <v>455.1087569162936</v>
       </c>
       <c r="C8" t="n">
-        <v>1135.559562603369</v>
+        <v>432.2484309699978</v>
       </c>
       <c r="D8" t="n">
-        <v>1116.307345828773</v>
+        <v>412.9962141954022</v>
       </c>
       <c r="E8" t="n">
-        <v>690.3304059766309</v>
+        <v>391.0596783836638</v>
       </c>
       <c r="F8" t="n">
-        <v>669.2466282064352</v>
+        <v>369.9759006134681</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I8" t="n">
         <v>36.91199246082674</v>
@@ -4807,49 +4807,49 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N8" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X8" t="n">
-        <v>1175.524714805496</v>
+        <v>933.1209803825714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1174.227848800791</v>
+        <v>874.9571212078237</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N9" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O9" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P9" t="n">
         <v>1306.794406253903</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1763.580312956634</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956634</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>827.0154203790037</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>655.0428572579196</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>491.7260843846904</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>325.5178785375439</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>325.5178785375439</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>159.260908831776</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
         <v>136.6805607205508</v>
@@ -4974,7 +4974,7 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O10" t="n">
         <v>1428.000280878674</v>
@@ -4995,19 +4995,19 @@
         <v>1798.56100972851</v>
       </c>
       <c r="U10" t="n">
-        <v>1518.376561228814</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V10" t="n">
-        <v>1518.376561228814</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="W10" t="n">
-        <v>1243.524157401327</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X10" t="n">
-        <v>1243.524157401327</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y10" t="n">
-        <v>1017.181389091069</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>926.9832652859214</v>
+        <v>1595.927507043463</v>
       </c>
       <c r="C11" t="n">
-        <v>926.9832652859214</v>
+        <v>1169.026777056763</v>
       </c>
       <c r="D11" t="n">
-        <v>884.2450452445778</v>
+        <v>1169.026777056763</v>
       </c>
       <c r="E11" t="n">
-        <v>458.2681053924354</v>
+        <v>1169.026777056763</v>
       </c>
       <c r="F11" t="n">
-        <v>458.2681053924354</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="G11" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="H11" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="I11" t="n">
-        <v>66.05837648005486</v>
+        <v>66.05837648005487</v>
       </c>
       <c r="J11" t="n">
-        <v>136.3026272933134</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K11" t="n">
-        <v>249.8255595338024</v>
+        <v>641.5547782414287</v>
       </c>
       <c r="L11" t="n">
-        <v>931.9802685651118</v>
+        <v>788.3865503720123</v>
       </c>
       <c r="M11" t="n">
-        <v>1100.505190098699</v>
+        <v>956.9114719055996</v>
       </c>
       <c r="N11" t="n">
-        <v>1782.659899130008</v>
+        <v>1128.913046718542</v>
       </c>
       <c r="O11" t="n">
-        <v>1942.909128882728</v>
+        <v>1811.067755749851</v>
       </c>
       <c r="P11" t="n">
-        <v>2625.063837914037</v>
+        <v>1982.560687947043</v>
       </c>
       <c r="Q11" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R11" t="n">
         <v>2756.180642550745</v>
       </c>
       <c r="S11" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T11" t="n">
-        <v>2756.180642550745</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U11" t="n">
-        <v>2497.921298736687</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="V11" t="n">
-        <v>2140.431883862937</v>
+        <v>2105.848853089709</v>
       </c>
       <c r="W11" t="n">
-        <v>1744.040534163284</v>
+        <v>2105.848853089709</v>
       </c>
       <c r="X11" t="n">
-        <v>1332.320535331031</v>
+        <v>2015.775871334993</v>
       </c>
       <c r="Y11" t="n">
-        <v>926.9832652859214</v>
+        <v>2015.775871334993</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I12" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J12" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K12" t="n">
-        <v>178.4398003763726</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L12" t="n">
-        <v>727.423111652648</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M12" t="n">
-        <v>863.2809106466635</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N12" t="n">
-        <v>1545.435619677973</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O12" t="n">
-        <v>1671.53958532443</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P12" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q12" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R12" t="n">
         <v>1842.509005805703</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1116.890503822072</v>
+        <v>835.5971459668049</v>
       </c>
       <c r="C13" t="n">
-        <v>944.9179407009876</v>
+        <v>663.6245828457209</v>
       </c>
       <c r="D13" t="n">
-        <v>781.6011678277583</v>
+        <v>615.3929619806119</v>
       </c>
       <c r="E13" t="n">
         <v>615.3929619806119</v>
@@ -5205,7 +5205,7 @@
         <v>437.289069149471</v>
       </c>
       <c r="L13" t="n">
-        <v>870.0582805254605</v>
+        <v>870.0582805254608</v>
       </c>
       <c r="M13" t="n">
         <v>1343.568371978314</v>
@@ -5229,10 +5229,10 @@
         <v>2572.438708588144</v>
       </c>
       <c r="T13" t="n">
-        <v>2331.388871466908</v>
+        <v>2331.388871466909</v>
       </c>
       <c r="U13" t="n">
-        <v>2051.233650762781</v>
+        <v>2051.233650762782</v>
       </c>
       <c r="V13" t="n">
         <v>1769.52218337081</v>
@@ -5241,10 +5241,10 @@
         <v>1494.669779543323</v>
       </c>
       <c r="X13" t="n">
-        <v>1252.105882989128</v>
+        <v>1252.105882989129</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.890503822072</v>
+        <v>1025.763114678871</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1107.678273632328</v>
+        <v>1329.517355328757</v>
       </c>
       <c r="C14" t="n">
-        <v>1107.678273632328</v>
+        <v>1329.517355328757</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.678273632328</v>
+        <v>906.2247345137571</v>
       </c>
       <c r="E14" t="n">
-        <v>681.701333780186</v>
+        <v>480.2477946616147</v>
       </c>
       <c r="F14" t="n">
-        <v>681.701333780186</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="G14" t="n">
-        <v>340.7581027047432</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="H14" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="I14" t="n">
-        <v>66.05837648005486</v>
+        <v>66.05837648005487</v>
       </c>
       <c r="J14" t="n">
-        <v>136.3026272933134</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K14" t="n">
-        <v>249.8255595338024</v>
+        <v>1210.186555032249</v>
       </c>
       <c r="L14" t="n">
-        <v>396.6573316643859</v>
+        <v>1892.341264063558</v>
       </c>
       <c r="M14" t="n">
-        <v>1078.812040695695</v>
+        <v>2163.234851564464</v>
       </c>
       <c r="N14" t="n">
-        <v>1691.14886073692</v>
+        <v>2335.236426377406</v>
       </c>
       <c r="O14" t="n">
-        <v>1851.398090489639</v>
+        <v>2495.485656130125</v>
       </c>
       <c r="P14" t="n">
-        <v>1982.560687947043</v>
+        <v>2626.648253587529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2565.07917227793</v>
+        <v>2717.317830555681</v>
       </c>
       <c r="R14" t="n">
         <v>2756.180642550745</v>
       </c>
       <c r="S14" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T14" t="n">
-        <v>2540.484301197499</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="U14" t="n">
-        <v>2282.224957383442</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="V14" t="n">
-        <v>1924.735542509691</v>
+        <v>2321.545194442955</v>
       </c>
       <c r="W14" t="n">
-        <v>1924.735542509691</v>
+        <v>1925.153844743302</v>
       </c>
       <c r="X14" t="n">
-        <v>1513.015543677438</v>
+        <v>1513.433845911049</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.678273632328</v>
+        <v>1329.517355328757</v>
       </c>
     </row>
     <row r="15">
@@ -5354,10 +5354,10 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I15" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J15" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K15" t="n">
         <v>561.9368085857664</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5971459668044</v>
+        <v>894.2040557049265</v>
       </c>
       <c r="C16" t="n">
-        <v>805.8858028868058</v>
+        <v>722.2314925838425</v>
       </c>
       <c r="D16" t="n">
-        <v>642.5690300135765</v>
+        <v>558.9147197106132</v>
       </c>
       <c r="E16" t="n">
-        <v>476.36082416643</v>
+        <v>392.7065138634667</v>
       </c>
       <c r="F16" t="n">
-        <v>304.4990499409905</v>
+        <v>220.8447396380271</v>
       </c>
       <c r="G16" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="H16" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I16" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="J16" t="n">
-        <v>149.7451419535122</v>
+        <v>149.7451419535119</v>
       </c>
       <c r="K16" t="n">
-        <v>437.289069149471</v>
+        <v>437.2890691494707</v>
       </c>
       <c r="L16" t="n">
-        <v>870.0582805254605</v>
+        <v>870.0582805254603</v>
       </c>
       <c r="M16" t="n">
         <v>1343.568371978314</v>
@@ -5466,22 +5466,22 @@
         <v>2572.438708588144</v>
       </c>
       <c r="T16" t="n">
-        <v>2331.388871466908</v>
+        <v>2389.99578120503</v>
       </c>
       <c r="U16" t="n">
-        <v>2051.233650762781</v>
+        <v>2109.840560500903</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.52218337081</v>
+        <v>1828.129093108932</v>
       </c>
       <c r="W16" t="n">
-        <v>1494.669779543323</v>
+        <v>1553.276689281445</v>
       </c>
       <c r="X16" t="n">
-        <v>1252.105882989128</v>
+        <v>1310.71279272725</v>
       </c>
       <c r="Y16" t="n">
-        <v>1025.76311467887</v>
+        <v>1084.370024416992</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.703264118174</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="C17" t="n">
-        <v>1338.703264118174</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="D17" t="n">
-        <v>915.4106433031743</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="E17" t="n">
-        <v>883.3922872030352</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2681053924354</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="G17" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="H17" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="I17" t="n">
-        <v>66.05837648005486</v>
+        <v>66.05837648005487</v>
       </c>
       <c r="J17" t="n">
-        <v>136.3026272933134</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K17" t="n">
-        <v>818.4573363246228</v>
+        <v>641.5547782414287</v>
       </c>
       <c r="L17" t="n">
-        <v>1328.841484255403</v>
+        <v>1320.565792474535</v>
       </c>
       <c r="M17" t="n">
-        <v>2010.996193286713</v>
+        <v>1489.090714008123</v>
       </c>
       <c r="N17" t="n">
-        <v>2182.997768099655</v>
+        <v>1661.092288821065</v>
       </c>
       <c r="O17" t="n">
         <v>2343.246997852374</v>
@@ -5542,25 +5542,25 @@
         <v>2756.180642550745</v>
       </c>
       <c r="S17" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T17" t="n">
-        <v>2756.180642550745</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U17" t="n">
-        <v>2497.921298736687</v>
+        <v>2205.078924149402</v>
       </c>
       <c r="V17" t="n">
-        <v>2140.431883862937</v>
+        <v>1847.589509275652</v>
       </c>
       <c r="W17" t="n">
-        <v>1744.040534163284</v>
+        <v>1451.198159575998</v>
       </c>
       <c r="X17" t="n">
-        <v>1744.040534163284</v>
+        <v>1149.239865291273</v>
       </c>
       <c r="Y17" t="n">
-        <v>1338.703264118174</v>
+        <v>743.9025952461636</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>415.0197906440249</v>
       </c>
       <c r="K18" t="n">
-        <v>502.3049433173402</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L18" t="n">
-        <v>616.0304548870594</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M18" t="n">
-        <v>1298.185163918369</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N18" t="n">
-        <v>1439.980119393067</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O18" t="n">
-        <v>1566.084085039525</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.15201172827</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q18" t="n">
         <v>1721.595954207369</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5971459668044</v>
+        <v>1116.890503822072</v>
       </c>
       <c r="C19" t="n">
-        <v>663.6245828457204</v>
+        <v>944.9179407009876</v>
       </c>
       <c r="D19" t="n">
-        <v>500.3078099724911</v>
+        <v>781.6011678277583</v>
       </c>
       <c r="E19" t="n">
-        <v>334.0996041253446</v>
+        <v>615.3929619806119</v>
       </c>
       <c r="F19" t="n">
-        <v>162.2378298999051</v>
+        <v>443.5311877551723</v>
       </c>
       <c r="G19" t="n">
-        <v>55.1236128510149</v>
+        <v>277.81006096816</v>
       </c>
       <c r="H19" t="n">
-        <v>55.1236128510149</v>
+        <v>138.7779231539782</v>
       </c>
       <c r="I19" t="n">
         <v>55.1236128510149</v>
@@ -5679,7 +5679,7 @@
         <v>437.289069149471</v>
       </c>
       <c r="L19" t="n">
-        <v>870.0582805254605</v>
+        <v>870.0582805254608</v>
       </c>
       <c r="M19" t="n">
         <v>1343.568371978314</v>
@@ -5703,22 +5703,22 @@
         <v>2572.438708588144</v>
       </c>
       <c r="T19" t="n">
-        <v>2331.388871466908</v>
+        <v>2572.438708588144</v>
       </c>
       <c r="U19" t="n">
-        <v>2051.233650762781</v>
+        <v>2292.283487884016</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.52218337081</v>
+        <v>2050.815541226077</v>
       </c>
       <c r="W19" t="n">
-        <v>1494.669779543323</v>
+        <v>1775.96313739859</v>
       </c>
       <c r="X19" t="n">
-        <v>1252.105882989128</v>
+        <v>1533.399240844395</v>
       </c>
       <c r="Y19" t="n">
-        <v>1025.76311467887</v>
+        <v>1307.056472534137</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>610.683876106759</v>
+        <v>1596.780265085006</v>
       </c>
       <c r="C20" t="n">
-        <v>610.683876106759</v>
+        <v>1169.879535098306</v>
       </c>
       <c r="D20" t="n">
-        <v>610.683876106759</v>
+        <v>1169.879535098306</v>
       </c>
       <c r="E20" t="n">
-        <v>610.683876106759</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="F20" t="n">
-        <v>185.5596942961593</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="G20" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="H20" t="n">
         <v>55.1236128510149</v>
@@ -5752,28 +5752,28 @@
         <v>66.05837648005487</v>
       </c>
       <c r="J20" t="n">
-        <v>136.3026272933135</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K20" t="n">
-        <v>249.8255595338026</v>
+        <v>641.5547782414287</v>
       </c>
       <c r="L20" t="n">
-        <v>931.9802685651119</v>
+        <v>1323.709487272738</v>
       </c>
       <c r="M20" t="n">
-        <v>1100.505190098699</v>
+        <v>1492.234408806325</v>
       </c>
       <c r="N20" t="n">
-        <v>1782.659899130008</v>
+        <v>1664.235983619267</v>
       </c>
       <c r="O20" t="n">
-        <v>2003.63674876739</v>
+        <v>1824.485213371987</v>
       </c>
       <c r="P20" t="n">
-        <v>2134.799346224794</v>
+        <v>2474.409595309778</v>
       </c>
       <c r="Q20" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R20" t="n">
         <v>2756.180642550745</v>
@@ -5785,19 +5785,19 @@
         <v>2463.33826796346</v>
       </c>
       <c r="U20" t="n">
-        <v>2205.078924149402</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="V20" t="n">
-        <v>1847.589509275652</v>
+        <v>2105.848853089709</v>
       </c>
       <c r="W20" t="n">
-        <v>1847.589509275652</v>
+        <v>2105.848853089709</v>
       </c>
       <c r="X20" t="n">
-        <v>1435.869510443399</v>
+        <v>2105.848853089709</v>
       </c>
       <c r="Y20" t="n">
-        <v>1030.532240398289</v>
+        <v>1700.5115830446</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I21" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J21" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K21" t="n">
-        <v>178.4398003763726</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L21" t="n">
-        <v>292.1653119460918</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M21" t="n">
-        <v>428.0231109401074</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N21" t="n">
-        <v>1110.177819971417</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O21" t="n">
-        <v>1236.281785617874</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P21" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q21" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R21" t="n">
         <v>1842.509005805703</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5971459668049</v>
+        <v>1116.890503822072</v>
       </c>
       <c r="C22" t="n">
-        <v>663.6245828457209</v>
+        <v>944.9179407009876</v>
       </c>
       <c r="D22" t="n">
-        <v>500.3078099724916</v>
+        <v>781.6011678277583</v>
       </c>
       <c r="E22" t="n">
-        <v>334.0996041253451</v>
+        <v>615.3929619806119</v>
       </c>
       <c r="F22" t="n">
-        <v>334.0996041253451</v>
+        <v>443.5311877551723</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3784773383329</v>
+        <v>277.81006096816</v>
       </c>
       <c r="H22" t="n">
-        <v>55.1236128510149</v>
+        <v>138.7779231539782</v>
       </c>
       <c r="I22" t="n">
         <v>55.1236128510149</v>
       </c>
       <c r="J22" t="n">
-        <v>149.7451419535123</v>
+        <v>149.7451419535122</v>
       </c>
       <c r="K22" t="n">
-        <v>437.2890691494712</v>
+        <v>437.289069149471</v>
       </c>
       <c r="L22" t="n">
-        <v>870.0582805254608</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M22" t="n">
         <v>1343.568371978314</v>
@@ -5946,16 +5946,16 @@
         <v>2051.233650762782</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.52218337081</v>
+        <v>2050.815541226077</v>
       </c>
       <c r="W22" t="n">
-        <v>1494.669779543323</v>
+        <v>1775.96313739859</v>
       </c>
       <c r="X22" t="n">
-        <v>1252.105882989129</v>
+        <v>1533.399240844395</v>
       </c>
       <c r="Y22" t="n">
-        <v>1025.763114678871</v>
+        <v>1307.056472534137</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2490.72573181884</v>
+        <v>2490.725731818842</v>
       </c>
       <c r="C23" t="n">
-        <v>2063.82500183214</v>
+        <v>2063.825001832142</v>
       </c>
       <c r="D23" t="n">
-        <v>1640.53238101714</v>
+        <v>1640.532381017142</v>
       </c>
       <c r="E23" t="n">
-        <v>1214.555441164998</v>
+        <v>1214.555441164999</v>
       </c>
       <c r="F23" t="n">
-        <v>789.4312593543982</v>
+        <v>789.4312593543991</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2867668129775</v>
+        <v>386.2867668129784</v>
       </c>
       <c r="H23" t="n">
         <v>100.6522769592496</v>
@@ -5992,22 +5992,22 @@
         <v>573.5605101091744</v>
       </c>
       <c r="K23" t="n">
-        <v>687.0834423496634</v>
+        <v>1437.998705112024</v>
       </c>
       <c r="L23" t="n">
-        <v>1449.920838212033</v>
+        <v>2552.384446870181</v>
       </c>
       <c r="M23" t="n">
-        <v>2659.788811435116</v>
+        <v>3050.101603985657</v>
       </c>
       <c r="N23" t="n">
-        <v>2831.790386248058</v>
+        <v>3222.103178798599</v>
       </c>
       <c r="O23" t="n">
-        <v>3874.201315914054</v>
+        <v>3382.352408551319</v>
       </c>
       <c r="P23" t="n">
-        <v>4750.842800721514</v>
+        <v>4258.993893358779</v>
       </c>
       <c r="Q23" t="n">
         <v>4841.512377689665</v>
@@ -6016,25 +6016,25 @@
         <v>5032.613847962481</v>
       </c>
       <c r="S23" t="n">
-        <v>4955.467814728441</v>
+        <v>4955.467814728442</v>
       </c>
       <c r="T23" t="n">
         <v>4739.771473375195</v>
       </c>
       <c r="U23" t="n">
-        <v>4481.512129561137</v>
+        <v>4481.512129561138</v>
       </c>
       <c r="V23" t="n">
-        <v>4124.022714687386</v>
+        <v>4124.022714687388</v>
       </c>
       <c r="W23" t="n">
-        <v>3727.631364987732</v>
+        <v>3727.631364987734</v>
       </c>
       <c r="X23" t="n">
-        <v>3315.91136615548</v>
+        <v>3315.911366155482</v>
       </c>
       <c r="Y23" t="n">
-        <v>2910.57409611037</v>
+        <v>2910.574096110372</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>100.6522769592496</v>
       </c>
       <c r="I24" t="n">
-        <v>106.2095620056847</v>
+        <v>129.6668678500965</v>
       </c>
       <c r="J24" t="n">
-        <v>437.0911489078478</v>
+        <v>460.5484547522596</v>
       </c>
       <c r="K24" t="n">
-        <v>516.0709569541984</v>
+        <v>1094.130517462869</v>
       </c>
       <c r="L24" t="n">
-        <v>629.7964685239176</v>
+        <v>1207.856029032588</v>
       </c>
       <c r="M24" t="n">
-        <v>765.6542675179331</v>
+        <v>1343.713828026604</v>
       </c>
       <c r="N24" t="n">
-        <v>907.4492229926315</v>
+        <v>1485.508783501302</v>
       </c>
       <c r="O24" t="n">
-        <v>1230.403204663797</v>
+        <v>1611.612749147759</v>
       </c>
       <c r="P24" t="n">
-        <v>1328.471131352542</v>
+        <v>1709.680675836504</v>
       </c>
       <c r="Q24" t="n">
-        <v>1872.58011860051</v>
+        <v>1767.124618315604</v>
       </c>
       <c r="R24" t="n">
         <v>1888.037669913938</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>881.1258100750397</v>
+        <v>1162.419167930306</v>
       </c>
       <c r="C25" t="n">
-        <v>709.1532469539557</v>
+        <v>990.4466048092223</v>
       </c>
       <c r="D25" t="n">
-        <v>545.8364740807264</v>
+        <v>827.129831935993</v>
       </c>
       <c r="E25" t="n">
-        <v>438.2351779717014</v>
+        <v>660.9216260888466</v>
       </c>
       <c r="F25" t="n">
-        <v>266.3734037462618</v>
+        <v>489.0598518634069</v>
       </c>
       <c r="G25" t="n">
-        <v>100.6522769592496</v>
+        <v>323.3387250763947</v>
       </c>
       <c r="H25" t="n">
-        <v>100.6522769592496</v>
+        <v>184.3065872622129</v>
       </c>
       <c r="I25" t="n">
         <v>100.6522769592496</v>
@@ -6171,28 +6171,28 @@
         <v>2801.70930665898</v>
       </c>
       <c r="R25" t="n">
-        <v>2778.764139493111</v>
+        <v>2801.70930665898</v>
       </c>
       <c r="S25" t="n">
-        <v>2617.967372696378</v>
+        <v>2640.912539862247</v>
       </c>
       <c r="T25" t="n">
-        <v>2376.917535575144</v>
+        <v>2399.862702741012</v>
       </c>
       <c r="U25" t="n">
-        <v>2096.762314871016</v>
+        <v>2119.707482036885</v>
       </c>
       <c r="V25" t="n">
-        <v>1815.050847479045</v>
+        <v>1837.996014644914</v>
       </c>
       <c r="W25" t="n">
-        <v>1540.198443651558</v>
+        <v>1821.491801506825</v>
       </c>
       <c r="X25" t="n">
-        <v>1297.634547097363</v>
+        <v>1578.92790495263</v>
       </c>
       <c r="Y25" t="n">
-        <v>1071.291778787105</v>
+        <v>1352.585136642372</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1185.406836451352</v>
+        <v>1124.873545916515</v>
       </c>
       <c r="C26" t="n">
-        <v>1185.406836451352</v>
+        <v>697.9728159298149</v>
       </c>
       <c r="D26" t="n">
-        <v>762.1142156363519</v>
+        <v>476.4797257826235</v>
       </c>
       <c r="E26" t="n">
-        <v>762.1142156363519</v>
+        <v>476.4797257826235</v>
       </c>
       <c r="F26" t="n">
-        <v>762.1142156363519</v>
+        <v>476.4797257826235</v>
       </c>
       <c r="G26" t="n">
-        <v>358.9697230949314</v>
+        <v>73.33523324120306</v>
       </c>
       <c r="H26" t="n">
         <v>73.33523324120306</v>
@@ -6226,28 +6226,28 @@
         <v>84.26999687024303</v>
       </c>
       <c r="J26" t="n">
-        <v>546.2434663911279</v>
+        <v>154.5142476835017</v>
       </c>
       <c r="K26" t="n">
-        <v>659.7663986316169</v>
+        <v>1018.952442686351</v>
       </c>
       <c r="L26" t="n">
-        <v>806.5981707622004</v>
+        <v>1165.784214816934</v>
       </c>
       <c r="M26" t="n">
-        <v>975.1230922957877</v>
+        <v>1334.309136350522</v>
       </c>
       <c r="N26" t="n">
-        <v>1882.646603655676</v>
+        <v>1856.250992896271</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.170115015563</v>
+        <v>2016.500222648991</v>
       </c>
       <c r="P26" t="n">
-        <v>3045.380365734202</v>
+        <v>2893.141707456451</v>
       </c>
       <c r="Q26" t="n">
-        <v>3627.898850065089</v>
+        <v>3475.660191787338</v>
       </c>
       <c r="R26" t="n">
         <v>3666.761662060153</v>
@@ -6265,13 +6265,13 @@
         <v>2758.17052878506</v>
       </c>
       <c r="W26" t="n">
-        <v>2422.312469620244</v>
+        <v>2361.779179085407</v>
       </c>
       <c r="X26" t="n">
-        <v>2010.592470787991</v>
+        <v>1950.059180253154</v>
       </c>
       <c r="Y26" t="n">
-        <v>1605.255200742882</v>
+        <v>1544.721910208045</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I27" t="n">
-        <v>78.89251828763813</v>
+        <v>102.34982413205</v>
       </c>
       <c r="J27" t="n">
-        <v>117.6716127202101</v>
+        <v>250.0828158671933</v>
       </c>
       <c r="K27" t="n">
-        <v>196.6514207665608</v>
+        <v>329.0626239135439</v>
       </c>
       <c r="L27" t="n">
-        <v>310.3769323362799</v>
+        <v>442.7881354832631</v>
       </c>
       <c r="M27" t="n">
-        <v>446.2347313302955</v>
+        <v>578.6459344772786</v>
       </c>
       <c r="N27" t="n">
         <v>720.4408899519769</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>853.8087663569931</v>
+        <v>996.069986398078</v>
       </c>
       <c r="C28" t="n">
-        <v>681.8362032359091</v>
+        <v>824.0974232769939</v>
       </c>
       <c r="D28" t="n">
-        <v>518.5194303626798</v>
+        <v>660.7806504037646</v>
       </c>
       <c r="E28" t="n">
-        <v>352.3112245155334</v>
+        <v>494.5724445566182</v>
       </c>
       <c r="F28" t="n">
-        <v>180.4494502900938</v>
+        <v>322.7106703311786</v>
       </c>
       <c r="G28" t="n">
         <v>156.9895435441664</v>
@@ -6408,28 +6408,28 @@
         <v>2774.392262940933</v>
       </c>
       <c r="R28" t="n">
-        <v>2751.447095775065</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="S28" t="n">
-        <v>2590.650328978332</v>
+        <v>2613.5954961442</v>
       </c>
       <c r="T28" t="n">
-        <v>2349.600491857097</v>
+        <v>2372.545659022966</v>
       </c>
       <c r="U28" t="n">
-        <v>2069.44527115297</v>
+        <v>2092.390438318838</v>
       </c>
       <c r="V28" t="n">
-        <v>1787.733803760999</v>
+        <v>1929.995023802083</v>
       </c>
       <c r="W28" t="n">
-        <v>1512.881399933512</v>
+        <v>1655.142619974596</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.317503379317</v>
+        <v>1412.578723420402</v>
       </c>
       <c r="Y28" t="n">
-        <v>1043.974735069059</v>
+        <v>1186.235955110144</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1752.650016436466</v>
+        <v>1482.362960790265</v>
       </c>
       <c r="C29" t="n">
-        <v>1325.749286449766</v>
+        <v>1187.238397446952</v>
       </c>
       <c r="D29" t="n">
-        <v>902.456665634766</v>
+        <v>1187.238397446952</v>
       </c>
       <c r="E29" t="n">
-        <v>476.4797257826235</v>
+        <v>1187.238397446952</v>
       </c>
       <c r="F29" t="n">
-        <v>476.4797257826235</v>
+        <v>762.1142156363519</v>
       </c>
       <c r="G29" t="n">
-        <v>73.33523324120306</v>
+        <v>358.9697230949314</v>
       </c>
       <c r="H29" t="n">
         <v>73.33523324120306</v>
@@ -6475,16 +6475,16 @@
         <v>1726.038355058148</v>
       </c>
       <c r="N29" t="n">
-        <v>2008.489651174023</v>
+        <v>1898.03992987109</v>
       </c>
       <c r="O29" t="n">
-        <v>2168.738880926742</v>
+        <v>2805.563441230978</v>
       </c>
       <c r="P29" t="n">
-        <v>3045.380365734202</v>
+        <v>3384.990614819186</v>
       </c>
       <c r="Q29" t="n">
-        <v>3627.898850065089</v>
+        <v>3475.660191787338</v>
       </c>
       <c r="R29" t="n">
         <v>3666.761662060153</v>
@@ -6499,16 +6499,16 @@
         <v>3115.65994365881</v>
       </c>
       <c r="V29" t="n">
-        <v>2758.17052878506</v>
+        <v>3115.65994365881</v>
       </c>
       <c r="W29" t="n">
-        <v>2584.218379560249</v>
+        <v>2719.268593959157</v>
       </c>
       <c r="X29" t="n">
-        <v>2172.498380727996</v>
+        <v>2307.548595126905</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.498380727996</v>
+        <v>1902.211325081795</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I30" t="n">
-        <v>78.89251828763813</v>
+        <v>102.34982413205</v>
       </c>
       <c r="J30" t="n">
-        <v>117.6716127202101</v>
+        <v>433.231411034213</v>
       </c>
       <c r="K30" t="n">
-        <v>196.6514207665608</v>
+        <v>512.2112190805636</v>
       </c>
       <c r="L30" t="n">
-        <v>310.3769323362799</v>
+        <v>625.9367306502828</v>
       </c>
       <c r="M30" t="n">
-        <v>446.2347313302955</v>
+        <v>761.7945296442983</v>
       </c>
       <c r="N30" t="n">
-        <v>720.4408899519769</v>
+        <v>903.5894851189967</v>
       </c>
       <c r="O30" t="n">
-        <v>846.5448555984343</v>
+        <v>1029.693450765454</v>
       </c>
       <c r="P30" t="n">
-        <v>1682.363632118458</v>
+        <v>1195.69858734959</v>
       </c>
       <c r="Q30" t="n">
         <v>1739.807574597557</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1043.974735069059</v>
+        <v>876.7539335228616</v>
       </c>
       <c r="C31" t="n">
-        <v>872.0021719479748</v>
+        <v>704.7813704017776</v>
       </c>
       <c r="D31" t="n">
-        <v>708.6853990747455</v>
+        <v>541.4645975285483</v>
       </c>
       <c r="E31" t="n">
-        <v>542.4771932275991</v>
+        <v>494.5724445566182</v>
       </c>
       <c r="F31" t="n">
-        <v>370.6154190021595</v>
+        <v>322.7106703311786</v>
       </c>
       <c r="G31" t="n">
-        <v>204.8942922151472</v>
+        <v>156.9895435441664</v>
       </c>
       <c r="H31" t="n">
         <v>156.9895435441664</v>
@@ -6645,28 +6645,28 @@
         <v>2774.392262940933</v>
       </c>
       <c r="R31" t="n">
-        <v>2751.447095775065</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="S31" t="n">
-        <v>2590.650328978332</v>
+        <v>2613.5954961442</v>
       </c>
       <c r="T31" t="n">
-        <v>2349.600491857097</v>
+        <v>2372.545659022966</v>
       </c>
       <c r="U31" t="n">
-        <v>2069.44527115297</v>
+        <v>2092.390438318838</v>
       </c>
       <c r="V31" t="n">
-        <v>1787.733803760999</v>
+        <v>1810.678970926867</v>
       </c>
       <c r="W31" t="n">
-        <v>1512.881399933512</v>
+        <v>1535.82656709938</v>
       </c>
       <c r="X31" t="n">
-        <v>1270.317503379317</v>
+        <v>1293.262670545185</v>
       </c>
       <c r="Y31" t="n">
-        <v>1043.974735069059</v>
+        <v>1066.919902234927</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2038.284506290194</v>
+        <v>1894.082959622518</v>
       </c>
       <c r="C32" t="n">
-        <v>1611.383776303494</v>
+        <v>1467.182229635818</v>
       </c>
       <c r="D32" t="n">
-        <v>1188.091155488494</v>
+        <v>1043.889608820818</v>
       </c>
       <c r="E32" t="n">
-        <v>762.1142156363519</v>
+        <v>617.9126689686758</v>
       </c>
       <c r="F32" t="n">
-        <v>762.1142156363519</v>
+        <v>192.788487158076</v>
       </c>
       <c r="G32" t="n">
-        <v>358.9697230949314</v>
+        <v>73.33523324120306</v>
       </c>
       <c r="H32" t="n">
         <v>73.33523324120306</v>
@@ -6700,28 +6700,28 @@
         <v>84.26999687024303</v>
       </c>
       <c r="J32" t="n">
-        <v>260.7815002320987</v>
+        <v>546.2434663911279</v>
       </c>
       <c r="K32" t="n">
-        <v>1125.219695234948</v>
+        <v>1410.681661393977</v>
       </c>
       <c r="L32" t="n">
-        <v>1272.051467365531</v>
+        <v>2318.205172753865</v>
       </c>
       <c r="M32" t="n">
-        <v>1440.576388899119</v>
+        <v>3073.815871073872</v>
       </c>
       <c r="N32" t="n">
-        <v>2348.099900259007</v>
+        <v>3245.817445886814</v>
       </c>
       <c r="O32" t="n">
-        <v>2508.349130011726</v>
+        <v>3406.066675639534</v>
       </c>
       <c r="P32" t="n">
-        <v>3384.990614819186</v>
+        <v>3537.229273096938</v>
       </c>
       <c r="Q32" t="n">
-        <v>3475.660191787338</v>
+        <v>3627.898850065089</v>
       </c>
       <c r="R32" t="n">
         <v>3666.761662060153</v>
@@ -6730,22 +6730,22 @@
         <v>3589.615628826114</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.761884722764</v>
+        <v>3373.919287472868</v>
       </c>
       <c r="U32" t="n">
-        <v>3197.502540908707</v>
+        <v>3115.65994365881</v>
       </c>
       <c r="V32" t="n">
-        <v>2840.013126034956</v>
+        <v>3115.65994365881</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.621776335303</v>
+        <v>2719.268593959157</v>
       </c>
       <c r="X32" t="n">
-        <v>2443.621776335303</v>
+        <v>2719.268593959157</v>
       </c>
       <c r="Y32" t="n">
-        <v>2038.284506290194</v>
+        <v>2313.931323914048</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>73.33523324120306</v>
       </c>
       <c r="I33" t="n">
-        <v>78.89251828763813</v>
+        <v>102.34982413205</v>
       </c>
       <c r="J33" t="n">
-        <v>117.6716127202101</v>
+        <v>433.231411034213</v>
       </c>
       <c r="K33" t="n">
-        <v>196.6514207665608</v>
+        <v>512.2112190805636</v>
       </c>
       <c r="L33" t="n">
-        <v>310.3769323362799</v>
+        <v>625.9367306502828</v>
       </c>
       <c r="M33" t="n">
-        <v>446.2347313302955</v>
+        <v>761.7945296442983</v>
       </c>
       <c r="N33" t="n">
-        <v>588.0296868049938</v>
+        <v>903.5894851189967</v>
       </c>
       <c r="O33" t="n">
-        <v>714.1336524514512</v>
+        <v>1029.693450765454</v>
       </c>
       <c r="P33" t="n">
-        <v>1549.952428971475</v>
+        <v>1195.69858734959</v>
       </c>
       <c r="Q33" t="n">
         <v>1739.807574597557</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.8087663569931</v>
+        <v>1135.10212421226</v>
       </c>
       <c r="C34" t="n">
-        <v>681.8362032359091</v>
+        <v>963.1295610911758</v>
       </c>
       <c r="D34" t="n">
-        <v>518.5194303626798</v>
+        <v>799.8127882179465</v>
       </c>
       <c r="E34" t="n">
-        <v>352.3112245155334</v>
+        <v>633.6045823708</v>
       </c>
       <c r="F34" t="n">
-        <v>180.4494502900938</v>
+        <v>461.7428081453604</v>
       </c>
       <c r="G34" t="n">
-        <v>180.4494502900938</v>
+        <v>296.0216813583482</v>
       </c>
       <c r="H34" t="n">
         <v>156.9895435441664</v>
@@ -6882,28 +6882,28 @@
         <v>2774.392262940933</v>
       </c>
       <c r="R34" t="n">
-        <v>2751.447095775065</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="S34" t="n">
-        <v>2590.650328978332</v>
+        <v>2774.392262940933</v>
       </c>
       <c r="T34" t="n">
-        <v>2349.600491857097</v>
+        <v>2533.342425819698</v>
       </c>
       <c r="U34" t="n">
-        <v>2069.44527115297</v>
+        <v>2350.738629008236</v>
       </c>
       <c r="V34" t="n">
-        <v>1787.733803760999</v>
+        <v>2069.027161616265</v>
       </c>
       <c r="W34" t="n">
-        <v>1512.881399933512</v>
+        <v>1794.174757788778</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.317503379317</v>
+        <v>1551.610861234583</v>
       </c>
       <c r="Y34" t="n">
-        <v>1043.974735069059</v>
+        <v>1325.268092924325</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1593.172155913306</v>
+        <v>1167.195216061163</v>
       </c>
       <c r="C35" t="n">
-        <v>1593.172155913306</v>
+        <v>1167.195216061163</v>
       </c>
       <c r="D35" t="n">
-        <v>1169.879535098306</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="E35" t="n">
         <v>743.9025952461636</v>
@@ -6937,52 +6937,52 @@
         <v>66.05837648005487</v>
       </c>
       <c r="J35" t="n">
-        <v>136.3026272933135</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K35" t="n">
-        <v>818.4573363246229</v>
+        <v>652.7984806859014</v>
       </c>
       <c r="L35" t="n">
-        <v>1484.55679581251</v>
+        <v>799.6302528164849</v>
       </c>
       <c r="M35" t="n">
-        <v>1653.081717346097</v>
+        <v>968.1551743500722</v>
       </c>
       <c r="N35" t="n">
-        <v>2335.236426377406</v>
+        <v>1140.156749163014</v>
       </c>
       <c r="O35" t="n">
-        <v>2495.485656130125</v>
+        <v>1300.405978915734</v>
       </c>
       <c r="P35" t="n">
-        <v>2626.648253587529</v>
+        <v>1982.560687947043</v>
       </c>
       <c r="Q35" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R35" t="n">
         <v>2756.180642550745</v>
       </c>
       <c r="S35" t="n">
-        <v>2756.180642550745</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T35" t="n">
-        <v>2756.180642550745</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U35" t="n">
-        <v>2497.921298736687</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="V35" t="n">
-        <v>2140.431883862937</v>
+        <v>2105.848853089709</v>
       </c>
       <c r="W35" t="n">
-        <v>2140.431883862937</v>
+        <v>1709.457503390056</v>
       </c>
       <c r="X35" t="n">
-        <v>1728.711885030684</v>
+        <v>1709.457503390056</v>
       </c>
       <c r="Y35" t="n">
-        <v>1728.711885030684</v>
+        <v>1587.043580352693</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>415.0197906440249</v>
       </c>
       <c r="K36" t="n">
-        <v>1097.174499675334</v>
+        <v>493.9995986903755</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.900011245053</v>
+        <v>607.7251102600947</v>
       </c>
       <c r="M36" t="n">
-        <v>1346.757810239069</v>
+        <v>743.5829092541102</v>
       </c>
       <c r="N36" t="n">
-        <v>1488.552765713767</v>
+        <v>885.3778647288085</v>
       </c>
       <c r="O36" t="n">
-        <v>1614.656731360225</v>
+        <v>1011.481830375266</v>
       </c>
       <c r="P36" t="n">
-        <v>1712.72465804897</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q36" t="n">
-        <v>1770.168600528069</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R36" t="n">
         <v>1842.509005805703</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>953.5737309488424</v>
+        <v>1116.890503822072</v>
       </c>
       <c r="C37" t="n">
-        <v>781.6011678277583</v>
+        <v>944.9179407009876</v>
       </c>
       <c r="D37" t="n">
         <v>781.6011678277583</v>
@@ -7104,7 +7104,7 @@
         <v>870.0582805254608</v>
       </c>
       <c r="M37" t="n">
-        <v>1343.568371978314</v>
+        <v>1343.568371978315</v>
       </c>
       <c r="N37" t="n">
         <v>1801.426691570447</v>
@@ -7122,25 +7122,25 @@
         <v>2756.180642550745</v>
       </c>
       <c r="S37" t="n">
-        <v>2595.383875754012</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="T37" t="n">
-        <v>2354.334038632777</v>
+        <v>2515.13080542951</v>
       </c>
       <c r="U37" t="n">
-        <v>2169.210235744819</v>
+        <v>2332.527008618048</v>
       </c>
       <c r="V37" t="n">
-        <v>1887.498768352848</v>
+        <v>2050.815541226077</v>
       </c>
       <c r="W37" t="n">
-        <v>1612.646364525361</v>
+        <v>1775.96313739859</v>
       </c>
       <c r="X37" t="n">
-        <v>1370.082467971166</v>
+        <v>1533.399240844395</v>
       </c>
       <c r="Y37" t="n">
-        <v>1143.739699660908</v>
+        <v>1307.056472534137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>634.1408906986361</v>
+        <v>2259.186245025176</v>
       </c>
       <c r="C38" t="n">
-        <v>207.2401607119362</v>
+        <v>1832.285515038476</v>
       </c>
       <c r="D38" t="n">
-        <v>207.2401607119362</v>
+        <v>1408.992894223476</v>
       </c>
       <c r="E38" t="n">
-        <v>207.2401607119362</v>
+        <v>983.0159543713336</v>
       </c>
       <c r="F38" t="n">
-        <v>55.1236128510149</v>
+        <v>557.8917725607338</v>
       </c>
       <c r="G38" t="n">
-        <v>55.1236128510149</v>
+        <v>340.7581027047432</v>
       </c>
       <c r="H38" t="n">
         <v>55.1236128510149</v>
@@ -7174,28 +7174,28 @@
         <v>66.05837648005487</v>
       </c>
       <c r="J38" t="n">
-        <v>136.3026272933135</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K38" t="n">
-        <v>249.8255595338026</v>
+        <v>641.5547782414287</v>
       </c>
       <c r="L38" t="n">
-        <v>408.1825516806592</v>
+        <v>788.3865503720123</v>
       </c>
       <c r="M38" t="n">
-        <v>1090.337260711969</v>
+        <v>956.9114719055996</v>
       </c>
       <c r="N38" t="n">
-        <v>1262.338835524911</v>
+        <v>1632.00565652575</v>
       </c>
       <c r="O38" t="n">
-        <v>1944.49354455622</v>
+        <v>1792.254886278469</v>
       </c>
       <c r="P38" t="n">
-        <v>2626.648253587529</v>
+        <v>2474.409595309778</v>
       </c>
       <c r="Q38" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R38" t="n">
         <v>2756.180642550745</v>
@@ -7204,22 +7204,22 @@
         <v>2679.034609316706</v>
       </c>
       <c r="T38" t="n">
-        <v>2463.33826796346</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="U38" t="n">
-        <v>2205.078924149402</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="V38" t="n">
-        <v>1847.589509275652</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="W38" t="n">
-        <v>1451.198159575998</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="X38" t="n">
-        <v>1039.478160743746</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="Y38" t="n">
-        <v>634.1408906986361</v>
+        <v>2679.034609316706</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I39" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J39" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K39" t="n">
-        <v>178.4398003763726</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L39" t="n">
-        <v>292.1653119460918</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M39" t="n">
-        <v>428.0231109401074</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N39" t="n">
-        <v>989.384876293121</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O39" t="n">
-        <v>1671.53958532443</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P39" t="n">
-        <v>1769.607512013175</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q39" t="n">
-        <v>1827.051454492275</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R39" t="n">
         <v>1842.509005805703</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5971459668049</v>
+        <v>1116.890503822072</v>
       </c>
       <c r="C40" t="n">
-        <v>663.6245828457209</v>
+        <v>944.9179407009876</v>
       </c>
       <c r="D40" t="n">
-        <v>500.3078099724916</v>
+        <v>781.6011678277583</v>
       </c>
       <c r="E40" t="n">
-        <v>334.0996041253451</v>
+        <v>615.3929619806119</v>
       </c>
       <c r="F40" t="n">
-        <v>162.2378298999055</v>
+        <v>443.5311877551723</v>
       </c>
       <c r="G40" t="n">
-        <v>162.2378298999055</v>
+        <v>277.81006096816</v>
       </c>
       <c r="H40" t="n">
         <v>138.7779231539782</v>
@@ -7356,28 +7356,28 @@
         <v>2756.180642550745</v>
       </c>
       <c r="R40" t="n">
-        <v>2733.235475384876</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S40" t="n">
-        <v>2572.438708588144</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T40" t="n">
-        <v>2331.388871466909</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U40" t="n">
-        <v>2051.233650762782</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.52218337081</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W40" t="n">
-        <v>1494.669779543323</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X40" t="n">
-        <v>1252.105882989129</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y40" t="n">
-        <v>1025.763114678871</v>
+        <v>1275.051050154997</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1333.125464500457</v>
+        <v>1756.418085315457</v>
       </c>
       <c r="C41" t="n">
-        <v>906.2247345137571</v>
+        <v>1329.517355328757</v>
       </c>
       <c r="D41" t="n">
         <v>906.2247345137571</v>
@@ -7411,28 +7411,28 @@
         <v>66.05837648005487</v>
       </c>
       <c r="J41" t="n">
-        <v>136.3026272933135</v>
+        <v>478.1618536905065</v>
       </c>
       <c r="K41" t="n">
-        <v>818.4573363246229</v>
+        <v>1160.316562721816</v>
       </c>
       <c r="L41" t="n">
-        <v>1481.080142533155</v>
+        <v>1842.471271753125</v>
       </c>
       <c r="M41" t="n">
-        <v>2163.234851564464</v>
+        <v>2010.996193286713</v>
       </c>
       <c r="N41" t="n">
-        <v>2335.236426377406</v>
+        <v>2182.997768099655</v>
       </c>
       <c r="O41" t="n">
-        <v>2495.485656130125</v>
+        <v>2343.246997852374</v>
       </c>
       <c r="P41" t="n">
-        <v>2626.648253587529</v>
+        <v>2474.409595309778</v>
       </c>
       <c r="Q41" t="n">
-        <v>2717.317830555681</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R41" t="n">
         <v>2756.180642550745</v>
@@ -7441,22 +7441,22 @@
         <v>2679.034609316706</v>
       </c>
       <c r="T41" t="n">
-        <v>2463.33826796346</v>
+        <v>2519.244770234317</v>
       </c>
       <c r="U41" t="n">
-        <v>2463.33826796346</v>
+        <v>2519.244770234317</v>
       </c>
       <c r="V41" t="n">
-        <v>2463.33826796346</v>
+        <v>2161.755355360566</v>
       </c>
       <c r="W41" t="n">
-        <v>2150.182733377819</v>
+        <v>2161.755355360566</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.462734545566</v>
+        <v>2161.755355360566</v>
       </c>
       <c r="Y41" t="n">
-        <v>1333.125464500457</v>
+        <v>1756.418085315457</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>55.1236128510149</v>
       </c>
       <c r="I42" t="n">
-        <v>60.68089789744997</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J42" t="n">
-        <v>99.45999233002198</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K42" t="n">
-        <v>508.242099798023</v>
+        <v>493.9995986903755</v>
       </c>
       <c r="L42" t="n">
-        <v>621.9676113677422</v>
+        <v>607.7251102600947</v>
       </c>
       <c r="M42" t="n">
-        <v>757.8254103617577</v>
+        <v>743.5829092541102</v>
       </c>
       <c r="N42" t="n">
-        <v>1439.980119393067</v>
+        <v>885.3778647288085</v>
       </c>
       <c r="O42" t="n">
-        <v>1566.084085039525</v>
+        <v>1011.481830375266</v>
       </c>
       <c r="P42" t="n">
-        <v>1664.15201172827</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q42" t="n">
         <v>1721.595954207369</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1116.890503822071</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C43" t="n">
-        <v>944.9179407009873</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D43" t="n">
-        <v>781.601167827758</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="E43" t="n">
-        <v>615.3929619806115</v>
+        <v>520.3615441644429</v>
       </c>
       <c r="F43" t="n">
-        <v>443.531187755172</v>
+        <v>348.4997699390033</v>
       </c>
       <c r="G43" t="n">
-        <v>277.8100609681597</v>
+        <v>182.778643151991</v>
       </c>
       <c r="H43" t="n">
-        <v>138.7779231539779</v>
+        <v>138.7779231539782</v>
       </c>
       <c r="I43" t="n">
-        <v>55.1236128510146</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="J43" t="n">
-        <v>149.7451419535119</v>
+        <v>149.7451419535122</v>
       </c>
       <c r="K43" t="n">
-        <v>437.2890691494707</v>
+        <v>437.289069149471</v>
       </c>
       <c r="L43" t="n">
-        <v>870.0582805254603</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M43" t="n">
         <v>1343.568371978314</v>
@@ -7611,10 +7611,10 @@
         <v>1517.614946709192</v>
       </c>
       <c r="X43" t="n">
-        <v>1517.614946709192</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y43" t="n">
-        <v>1291.272178398934</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2021.904446895606</v>
+        <v>1594.095946047863</v>
       </c>
       <c r="C44" t="n">
-        <v>1595.003716908906</v>
+        <v>1167.195216061163</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.003716908906</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="E44" t="n">
-        <v>1169.026777056763</v>
+        <v>743.9025952461636</v>
       </c>
       <c r="F44" t="n">
         <v>743.9025952461636</v>
@@ -7642,58 +7642,58 @@
         <v>340.7581027047432</v>
       </c>
       <c r="H44" t="n">
-        <v>55.12361285101488</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I44" t="n">
-        <v>66.05837648005485</v>
+        <v>66.05837648005487</v>
       </c>
       <c r="J44" t="n">
-        <v>136.3026272933134</v>
+        <v>528.0318460009397</v>
       </c>
       <c r="K44" t="n">
-        <v>249.8255595338025</v>
+        <v>1203.790592259807</v>
       </c>
       <c r="L44" t="n">
-        <v>931.9802685651116</v>
+        <v>1350.62236439039</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.505190098699</v>
+        <v>1519.147285923978</v>
       </c>
       <c r="N44" t="n">
-        <v>1782.659899130008</v>
+        <v>1691.14886073692</v>
       </c>
       <c r="O44" t="n">
-        <v>1942.909128882727</v>
+        <v>1851.398090489639</v>
       </c>
       <c r="P44" t="n">
-        <v>2474.409595309777</v>
+        <v>1982.560687947043</v>
       </c>
       <c r="Q44" t="n">
-        <v>2565.079172277929</v>
+        <v>2565.07917227793</v>
       </c>
       <c r="R44" t="n">
-        <v>2756.180642550744</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S44" t="n">
-        <v>2679.034609316705</v>
+        <v>2679.034609316706</v>
       </c>
       <c r="T44" t="n">
-        <v>2463.338267963459</v>
+        <v>2463.33826796346</v>
       </c>
       <c r="U44" t="n">
-        <v>2205.078924149401</v>
+        <v>2356.922630966724</v>
       </c>
       <c r="V44" t="n">
-        <v>2205.078924149401</v>
+        <v>1999.433216092973</v>
       </c>
       <c r="W44" t="n">
-        <v>2205.078924149401</v>
+        <v>1999.433216092973</v>
       </c>
       <c r="X44" t="n">
-        <v>2205.078924149401</v>
+        <v>1999.433216092973</v>
       </c>
       <c r="Y44" t="n">
-        <v>2021.904446895606</v>
+        <v>1594.095946047863</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1529.106734122609</v>
+        <v>615.4350973775688</v>
       </c>
       <c r="C45" t="n">
-        <v>1411.600830640114</v>
+        <v>497.9291938950736</v>
       </c>
       <c r="D45" t="n">
-        <v>1307.760872155399</v>
+        <v>394.0892354103586</v>
       </c>
       <c r="E45" t="n">
-        <v>1203.058938428336</v>
+        <v>289.3873016832958</v>
       </c>
       <c r="F45" t="n">
-        <v>1109.41310811124</v>
+        <v>195.7414713662</v>
       </c>
       <c r="G45" t="n">
-        <v>1015.998487556464</v>
+        <v>102.3268508114244</v>
       </c>
       <c r="H45" t="n">
-        <v>968.795249596055</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I45" t="n">
-        <v>974.35253464249</v>
+        <v>84.13820374186182</v>
       </c>
       <c r="J45" t="n">
-        <v>1013.131629075062</v>
+        <v>415.0197906440249</v>
       </c>
       <c r="K45" t="n">
-        <v>1092.111437121413</v>
+        <v>561.9368085857664</v>
       </c>
       <c r="L45" t="n">
-        <v>1774.266146152722</v>
+        <v>675.6623201554855</v>
       </c>
       <c r="M45" t="n">
-        <v>1910.123945146737</v>
+        <v>811.5201191495011</v>
       </c>
       <c r="N45" t="n">
-        <v>2459.107256423013</v>
+        <v>953.3150746241994</v>
       </c>
       <c r="O45" t="n">
-        <v>2585.211222069471</v>
+        <v>1079.419040270657</v>
       </c>
       <c r="P45" t="n">
-        <v>2683.279148758216</v>
+        <v>1177.486966959402</v>
       </c>
       <c r="Q45" t="n">
-        <v>2740.723091237315</v>
+        <v>1721.595954207369</v>
       </c>
       <c r="R45" t="n">
-        <v>2756.180642550744</v>
+        <v>1842.509005805703</v>
       </c>
       <c r="S45" t="n">
-        <v>2686.728348835561</v>
+        <v>1773.05671209052</v>
       </c>
       <c r="T45" t="n">
-        <v>2547.424641107727</v>
+        <v>1633.753004362686</v>
       </c>
       <c r="U45" t="n">
-        <v>2362.698494450233</v>
+        <v>1449.026857705193</v>
       </c>
       <c r="V45" t="n">
-        <v>2157.725355589499</v>
+        <v>1244.053718844459</v>
       </c>
       <c r="W45" t="n">
-        <v>1961.203978422716</v>
+        <v>1047.532341677676</v>
       </c>
       <c r="X45" t="n">
-        <v>1797.726632189379</v>
+        <v>884.0549954443392</v>
       </c>
       <c r="Y45" t="n">
-        <v>1658.033743542672</v>
+        <v>744.3621067976316</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1078.161042520999</v>
+        <v>858.5423131326734</v>
       </c>
       <c r="C46" t="n">
-        <v>944.9179407009875</v>
+        <v>686.5697500115893</v>
       </c>
       <c r="D46" t="n">
-        <v>781.6011678277582</v>
+        <v>523.2529771383601</v>
       </c>
       <c r="E46" t="n">
-        <v>615.3929619806117</v>
+        <v>359.8768774522089</v>
       </c>
       <c r="F46" t="n">
-        <v>443.5311877551722</v>
+        <v>359.8768774522089</v>
       </c>
       <c r="G46" t="n">
-        <v>277.81006096816</v>
+        <v>194.1557506651967</v>
       </c>
       <c r="H46" t="n">
-        <v>138.7779231539782</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="I46" t="n">
-        <v>55.12361285101488</v>
+        <v>55.1236128510149</v>
       </c>
       <c r="J46" t="n">
-        <v>149.745141953511</v>
+        <v>149.7451419535122</v>
       </c>
       <c r="K46" t="n">
-        <v>437.2890691494698</v>
+        <v>437.289069149471</v>
       </c>
       <c r="L46" t="n">
-        <v>870.0582805254594</v>
+        <v>870.0582805254605</v>
       </c>
       <c r="M46" t="n">
-        <v>1343.568371978313</v>
+        <v>1343.568371978314</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.426691570446</v>
+        <v>1801.426691570447</v>
       </c>
       <c r="O46" t="n">
-        <v>2231.086575844451</v>
+        <v>2231.086575844452</v>
       </c>
       <c r="P46" t="n">
-        <v>2585.203878609277</v>
+        <v>2585.203878609278</v>
       </c>
       <c r="Q46" t="n">
-        <v>2756.180642550744</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.235475384875</v>
+        <v>2756.180642550745</v>
       </c>
       <c r="S46" t="n">
-        <v>2572.438708588143</v>
+        <v>2595.383875754012</v>
       </c>
       <c r="T46" t="n">
-        <v>2331.388871466908</v>
+        <v>2354.334038632777</v>
       </c>
       <c r="U46" t="n">
-        <v>2051.233650762781</v>
+        <v>2074.17881792865</v>
       </c>
       <c r="V46" t="n">
-        <v>1769.522183370809</v>
+        <v>1792.467350536679</v>
       </c>
       <c r="W46" t="n">
-        <v>1494.669779543322</v>
+        <v>1517.614946709192</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.669779543322</v>
+        <v>1275.051050154997</v>
       </c>
       <c r="Y46" t="n">
-        <v>1268.327011233064</v>
+        <v>1048.708281844739</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>114.5898268852865</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>381.2527255747681</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>375.5597255057599</v>
       </c>
       <c r="P3" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
         <v>498.831168659766</v>
@@ -8230,16 +8230,16 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
-        <v>114.5898268852865</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>360.1383873221887</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>374.9029224977672</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N8" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>108.6396787202253</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P9" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8622,10 +8622,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>26.57325859521377</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>540.7302392936624</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>527.1772517965557</v>
       </c>
       <c r="P11" t="n">
-        <v>556.5576884584905</v>
+        <v>40.73771185837168</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.600419872214715</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L12" t="n">
-        <v>439.6543431379356</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>545.8179328854657</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160405</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>574.3755321119397</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>540.7302392936624</v>
       </c>
       <c r="M14" t="n">
-        <v>518.8179671694162</v>
+        <v>103.4026928962811</v>
       </c>
       <c r="N14" t="n">
-        <v>444.7830759881642</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>387.370715363024</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517229</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9096,7 +9096,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160405</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>574.3755321119397</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>367.2246220204011</v>
+        <v>537.5547900025485</v>
       </c>
       <c r="M17" t="n">
-        <v>518.8179671694162</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>527.1772517965557</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>8.389236996934073</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>551.8150606437312</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>61.34103018652806</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>524.001802505442</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>545.8179328854657</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>439.6543431379355</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>622.2279027593801</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>332.5174096786758</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>560.2042976406651</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>198.8384000249579</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>742.9514510575209</v>
+        <v>353.475032053341</v>
       </c>
       <c r="O26" t="n">
-        <v>754.8225066739077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>125.3006598598337</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>110.054441719769</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>133.7486900474577</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>111.5653750534671</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>754.8225066739077</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>452.7925011422266</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>133.7486900474577</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.340659139997</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>768.3754941710145</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>593.0159361478987</v>
       </c>
       <c r="N32" t="n">
-        <v>742.9514510575209</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.7486900474577</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>574.3755321119397</v>
+        <v>11.35727519643699</v>
       </c>
       <c r="L35" t="n">
-        <v>524.5128155124273</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>515.3061961801689</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.5576884584904</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>609.2675767524836</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>57.45742824667231</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>11.64163638007389</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>518.8179671694161</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>508.1743533406141</v>
       </c>
       <c r="O38" t="n">
-        <v>527.1772517965557</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>556.5576884584904</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.8048584629448</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>561.6674175604564</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>345.3123498961546</v>
       </c>
       <c r="K41" t="n">
         <v>574.3755321119397</v>
       </c>
       <c r="L41" t="n">
-        <v>521.00104452318</v>
+        <v>540.7302392936624</v>
       </c>
       <c r="M41" t="n">
-        <v>518.8179671694161</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>333.1336357794448</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>545.8179328854657</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>68.6234443387786</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>567.9149636549275</v>
       </c>
       <c r="L44" t="n">
-        <v>540.7302392936622</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>515.3061961801686</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>404.3816858279255</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>68.62344433877865</v>
       </c>
       <c r="L45" t="n">
-        <v>574.1709065268585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>411.3013694965431</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517138</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039386</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>376.7488567659195</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>318.4305469067614</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.9343004880391</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.21611525176951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>61.57924885131786</v>
+        <v>399.1130476160062</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>219.206571668189</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.8386078406745</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>137.64181643604</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>58.02084064074043</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>390.0189979144832</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>108.6640875020524</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>58.02084064074084</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.64181643604</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>238.6393387500226</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>39.84108552669164</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>312.9558758686167</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>269.9813269853133</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>25.51950059359518</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.480424276714</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.0208406407403</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.64181643604</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>82.81776719993368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>255.764708782504</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>199.7815353611302</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>59.92795762948873</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>140.838607840674</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>137.64181643604</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>118.122892346464</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>130.4584049769526</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>220.2148084700933</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.1228923464641</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>90.21611525176894</v>
+        <v>137.64181643604</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>280.854326238302</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>282.778144955191</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>81.02417127739739</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.0639155191421</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>114.4165087575718</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>159.1887991287653</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.57590965373817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>281.46554882241</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>76.37457290169868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.5393779397139</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>280.0941135376694</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>22.71571549420976</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>159.1887991287653</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>94.08110363800716</v>
+        <v>96.57590965373862</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>270.2775576101817</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>399.1130476160062</v>
+        <v>184.1507144585756</v>
       </c>
       <c r="H38" t="n">
-        <v>282.778144955191</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.5393779397139</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6767503759167</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>31.68536815534887</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.0639155191421</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>114.416508757572</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>55.34743724814888</v>
       </c>
       <c r="U41" t="n">
         <v>255.6767503759167</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>82.40345696287255</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.62645119385095</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>94.08110363800728</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>150.3252697491482</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9411648634011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>38.34216668806201</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.803785099385379</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.81776719993368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>22.71571549420976</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576047.6371058353</v>
+        <v>576047.6371058355</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576047.6371058354</v>
+        <v>576047.6371058355</v>
       </c>
     </row>
     <row r="13">
@@ -26319,40 +26319,40 @@
         <v>407709.8676078142</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078142</v>
       </c>
       <c r="E2" t="n">
         <v>279968.4554489488</v>
       </c>
       <c r="F2" t="n">
-        <v>279968.455448949</v>
+        <v>279968.4554489487</v>
       </c>
       <c r="G2" t="n">
-        <v>279968.4554489488</v>
+        <v>279968.4554489487</v>
       </c>
       <c r="H2" t="n">
-        <v>279968.4554489488</v>
+        <v>279968.4554489487</v>
       </c>
       <c r="I2" t="n">
-        <v>403031.3964799655</v>
+        <v>403031.3964799657</v>
       </c>
       <c r="J2" t="n">
-        <v>329194.0501386826</v>
+        <v>329194.0501386827</v>
       </c>
       <c r="K2" t="n">
-        <v>329194.0501386824</v>
+        <v>329194.0501386827</v>
       </c>
       <c r="L2" t="n">
         <v>329194.0501386825</v>
       </c>
       <c r="M2" t="n">
-        <v>279968.4554489487</v>
+        <v>279968.4554489488</v>
       </c>
       <c r="N2" t="n">
         <v>279968.4554489488</v>
       </c>
       <c r="O2" t="n">
-        <v>279968.4554489488</v>
+        <v>279968.4554489489</v>
       </c>
       <c r="P2" t="n">
         <v>279968.4554489487</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>304313.1617536862</v>
+        <v>304313.1617536863</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>245362.1265510739</v>
+      </c>
+      <c r="C4" t="n">
         <v>245362.1265510738</v>
-      </c>
-      <c r="C4" t="n">
-        <v>245362.1265510739</v>
       </c>
       <c r="D4" t="n">
         <v>245362.1265510739</v>
       </c>
       <c r="E4" t="n">
-        <v>63064.0930358797</v>
+        <v>63064.09303587969</v>
       </c>
       <c r="F4" t="n">
         <v>63064.0930358797</v>
       </c>
       <c r="G4" t="n">
-        <v>63064.09303587968</v>
+        <v>63064.0930358797</v>
       </c>
       <c r="H4" t="n">
         <v>63064.0930358797</v>
@@ -26441,7 +26441,7 @@
         <v>112660.9318352386</v>
       </c>
       <c r="J4" t="n">
-        <v>82902.99712979341</v>
+        <v>82902.9971297934</v>
       </c>
       <c r="K4" t="n">
         <v>82902.9971297934</v>
@@ -26456,10 +26456,10 @@
         <v>63064.0930358797</v>
       </c>
       <c r="O4" t="n">
-        <v>63064.09303587968</v>
+        <v>63064.09303587969</v>
       </c>
       <c r="P4" t="n">
-        <v>63064.09303587968</v>
+        <v>63064.0930358797</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>48307.02098702265</v>
       </c>
       <c r="P5" t="n">
-        <v>48307.02098702263</v>
+        <v>48307.02098702265</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53958.69383160831</v>
+        <v>-53958.69383160834</v>
       </c>
       <c r="C6" t="n">
         <v>100667.0267865121</v>
@@ -26530,40 +26530,40 @@
         <v>100667.026786512</v>
       </c>
       <c r="E6" t="n">
-        <v>-135715.8203276397</v>
+        <v>-136172.0396567786</v>
       </c>
       <c r="F6" t="n">
-        <v>168597.3414260466</v>
+        <v>168141.1220969076</v>
       </c>
       <c r="G6" t="n">
-        <v>168597.3414260464</v>
+        <v>168141.1220969076</v>
       </c>
       <c r="H6" t="n">
-        <v>168597.3414260465</v>
+        <v>168141.1220969076</v>
       </c>
       <c r="I6" t="n">
-        <v>56123.81033137243</v>
+        <v>56107.10150591593</v>
       </c>
       <c r="J6" t="n">
-        <v>152762.4409146238</v>
+        <v>152482.0272808055</v>
       </c>
       <c r="K6" t="n">
-        <v>184143.2005253234</v>
+        <v>183862.7868915053</v>
       </c>
       <c r="L6" t="n">
-        <v>184143.2005253235</v>
+        <v>183862.7868915052</v>
       </c>
       <c r="M6" t="n">
-        <v>168597.3414260463</v>
+        <v>168141.1220969076</v>
       </c>
       <c r="N6" t="n">
-        <v>168597.3414260465</v>
+        <v>168141.1220969076</v>
       </c>
       <c r="O6" t="n">
-        <v>168597.3414260465</v>
+        <v>168141.1220969078</v>
       </c>
       <c r="P6" t="n">
-        <v>168597.3414260464</v>
+        <v>168141.1220969075</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>294.1777623968496</v>
+        <v>294.1777623968497</v>
       </c>
       <c r="F3" t="n">
-        <v>294.1777623968496</v>
+        <v>294.1777623968497</v>
       </c>
       <c r="G3" t="n">
-        <v>294.1777623968496</v>
+        <v>294.1777623968497</v>
       </c>
       <c r="H3" t="n">
         <v>294.1777623968497</v>
@@ -26831,7 +26831,7 @@
         <v>689.0451606376862</v>
       </c>
       <c r="P4" t="n">
-        <v>689.045160637686</v>
+        <v>689.0451606376862</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>294.1777623968496</v>
+        <v>294.1777623968497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>339.3426545717763</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>160.9601215935667</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>149.2323884507978</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27599,7 +27599,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>62.59588763749673</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>56.38454581829615</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>164.2046760811749</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27678,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27794,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>78.78595127996961</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>146.1698679701244</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>69.17407713899905</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>343.7016767616583</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>120.0037611768142</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>259.6930441627925</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31764,10 +31764,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K11" t="n">
-        <v>150.4342293205558</v>
+        <v>150.4342293205559</v>
       </c>
       <c r="L11" t="n">
-        <v>186.6269637766466</v>
+        <v>186.6269637766467</v>
       </c>
       <c r="M11" t="n">
         <v>207.6584563677018</v>
@@ -31785,16 +31785,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R11" t="n">
-        <v>74.28801554637631</v>
+        <v>74.28801554637633</v>
       </c>
       <c r="S11" t="n">
-        <v>26.94904828389231</v>
+        <v>26.94904828389232</v>
       </c>
       <c r="T11" t="n">
-        <v>5.176937306099332</v>
+        <v>5.176937306099333</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09460993363516763</v>
+        <v>0.09460993363516765</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6327597153441672</v>
+        <v>0.6327597153441673</v>
       </c>
       <c r="H12" t="n">
-        <v>6.111126724508142</v>
+        <v>6.111126724508143</v>
       </c>
       <c r="I12" t="n">
-        <v>21.7858059888233</v>
+        <v>21.78580598882331</v>
       </c>
       <c r="J12" t="n">
         <v>59.78191679047679</v>
@@ -31849,7 +31849,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M12" t="n">
-        <v>160.326880506283</v>
+        <v>160.3268805062831</v>
       </c>
       <c r="N12" t="n">
         <v>164.5702559657622</v>
@@ -31861,19 +31861,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.77122261130106</v>
+        <v>80.77122261130108</v>
       </c>
       <c r="R12" t="n">
-        <v>39.28660758952646</v>
+        <v>39.28660758952647</v>
       </c>
       <c r="S12" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T12" t="n">
-        <v>2.550465694742497</v>
+        <v>2.550465694742498</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04162892864106364</v>
+        <v>0.04162892864106366</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5304844895680895</v>
+        <v>0.5304844895680896</v>
       </c>
       <c r="H13" t="n">
-        <v>4.716489370887198</v>
+        <v>4.716489370887199</v>
       </c>
       <c r="I13" t="n">
-        <v>15.95311537719309</v>
+        <v>15.9531153771931</v>
       </c>
       <c r="J13" t="n">
-        <v>37.50525341246392</v>
+        <v>37.50525341246393</v>
       </c>
       <c r="K13" t="n">
-        <v>61.63265251527438</v>
+        <v>61.63265251527439</v>
       </c>
       <c r="L13" t="n">
-        <v>78.86857583996851</v>
+        <v>78.86857583996853</v>
       </c>
       <c r="M13" t="n">
-        <v>83.15585503293241</v>
+        <v>83.15585503293242</v>
       </c>
       <c r="N13" t="n">
-        <v>81.17859466272414</v>
+        <v>81.17859466272417</v>
       </c>
       <c r="O13" t="n">
-        <v>74.98157130731506</v>
+        <v>74.98157130731508</v>
       </c>
       <c r="P13" t="n">
-        <v>64.15968772012599</v>
+        <v>64.159687720126</v>
       </c>
       <c r="Q13" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R13" t="n">
-        <v>23.85251168548881</v>
+        <v>23.85251168548882</v>
       </c>
       <c r="S13" t="n">
-        <v>9.244897877291155</v>
+        <v>9.244897877291157</v>
       </c>
       <c r="T13" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02893551761280491</v>
+        <v>0.02893551761280492</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,10 +32001,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K14" t="n">
-        <v>150.4342293205558</v>
+        <v>150.4342293205559</v>
       </c>
       <c r="L14" t="n">
-        <v>186.6269637766466</v>
+        <v>186.6269637766467</v>
       </c>
       <c r="M14" t="n">
         <v>207.6584563677018</v>
@@ -32022,16 +32022,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R14" t="n">
-        <v>74.28801554637631</v>
+        <v>74.28801554637633</v>
       </c>
       <c r="S14" t="n">
-        <v>26.94904828389231</v>
+        <v>26.94904828389232</v>
       </c>
       <c r="T14" t="n">
-        <v>5.176937306099332</v>
+        <v>5.176937306099333</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09460993363516763</v>
+        <v>0.09460993363516765</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6327597153441672</v>
+        <v>0.6327597153441673</v>
       </c>
       <c r="H15" t="n">
-        <v>6.111126724508142</v>
+        <v>6.111126724508143</v>
       </c>
       <c r="I15" t="n">
-        <v>21.7858059888233</v>
+        <v>21.78580598882331</v>
       </c>
       <c r="J15" t="n">
         <v>59.78191679047679</v>
@@ -32086,7 +32086,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M15" t="n">
-        <v>160.326880506283</v>
+        <v>160.3268805062831</v>
       </c>
       <c r="N15" t="n">
         <v>164.5702559657622</v>
@@ -32098,19 +32098,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.77122261130106</v>
+        <v>80.77122261130108</v>
       </c>
       <c r="R15" t="n">
-        <v>39.28660758952646</v>
+        <v>39.28660758952647</v>
       </c>
       <c r="S15" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T15" t="n">
-        <v>2.550465694742497</v>
+        <v>2.550465694742498</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04162892864106364</v>
+        <v>0.04162892864106366</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5304844895680895</v>
+        <v>0.5304844895680896</v>
       </c>
       <c r="H16" t="n">
-        <v>4.716489370887198</v>
+        <v>4.716489370887199</v>
       </c>
       <c r="I16" t="n">
-        <v>15.95311537719309</v>
+        <v>15.9531153771931</v>
       </c>
       <c r="J16" t="n">
-        <v>37.50525341246392</v>
+        <v>37.50525341246393</v>
       </c>
       <c r="K16" t="n">
-        <v>61.63265251527438</v>
+        <v>61.63265251527439</v>
       </c>
       <c r="L16" t="n">
-        <v>78.86857583996851</v>
+        <v>78.86857583996853</v>
       </c>
       <c r="M16" t="n">
-        <v>83.15585503293241</v>
+        <v>83.15585503293242</v>
       </c>
       <c r="N16" t="n">
-        <v>81.17859466272414</v>
+        <v>81.17859466272417</v>
       </c>
       <c r="O16" t="n">
-        <v>74.98157130731506</v>
+        <v>74.98157130731508</v>
       </c>
       <c r="P16" t="n">
-        <v>64.15968772012599</v>
+        <v>64.159687720126</v>
       </c>
       <c r="Q16" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R16" t="n">
-        <v>23.85251168548881</v>
+        <v>23.85251168548882</v>
       </c>
       <c r="S16" t="n">
-        <v>9.244897877291155</v>
+        <v>9.244897877291157</v>
       </c>
       <c r="T16" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02893551761280491</v>
+        <v>0.02893551761280492</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,10 +32238,10 @@
         <v>100.3737481858477</v>
       </c>
       <c r="K17" t="n">
-        <v>150.4342293205558</v>
+        <v>150.4342293205559</v>
       </c>
       <c r="L17" t="n">
-        <v>186.6269637766466</v>
+        <v>186.6269637766467</v>
       </c>
       <c r="M17" t="n">
         <v>207.6584563677018</v>
@@ -32259,16 +32259,16 @@
         <v>127.710105885559</v>
       </c>
       <c r="R17" t="n">
-        <v>74.28801554637631</v>
+        <v>74.28801554637633</v>
       </c>
       <c r="S17" t="n">
-        <v>26.94904828389231</v>
+        <v>26.94904828389232</v>
       </c>
       <c r="T17" t="n">
-        <v>5.176937306099332</v>
+        <v>5.176937306099333</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09460993363516763</v>
+        <v>0.09460993363516765</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6327597153441672</v>
+        <v>0.6327597153441673</v>
       </c>
       <c r="H18" t="n">
-        <v>6.111126724508142</v>
+        <v>6.111126724508143</v>
       </c>
       <c r="I18" t="n">
-        <v>21.7858059888233</v>
+        <v>21.78580598882331</v>
       </c>
       <c r="J18" t="n">
         <v>59.78191679047679</v>
@@ -32323,7 +32323,7 @@
         <v>137.389340825057</v>
       </c>
       <c r="M18" t="n">
-        <v>160.326880506283</v>
+        <v>160.3268805062831</v>
       </c>
       <c r="N18" t="n">
         <v>164.5702559657622</v>
@@ -32335,19 +32335,19 @@
         <v>120.8293530116419</v>
       </c>
       <c r="Q18" t="n">
-        <v>80.77122261130106</v>
+        <v>80.77122261130108</v>
       </c>
       <c r="R18" t="n">
-        <v>39.28660758952646</v>
+        <v>39.28660758952647</v>
       </c>
       <c r="S18" t="n">
         <v>11.75323418632696</v>
       </c>
       <c r="T18" t="n">
-        <v>2.550465694742497</v>
+        <v>2.550465694742498</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04162892864106364</v>
+        <v>0.04162892864106366</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5304844895680895</v>
+        <v>0.5304844895680896</v>
       </c>
       <c r="H19" t="n">
-        <v>4.716489370887198</v>
+        <v>4.716489370887199</v>
       </c>
       <c r="I19" t="n">
-        <v>15.95311537719309</v>
+        <v>15.9531153771931</v>
       </c>
       <c r="J19" t="n">
-        <v>37.50525341246392</v>
+        <v>37.50525341246393</v>
       </c>
       <c r="K19" t="n">
-        <v>61.63265251527438</v>
+        <v>61.63265251527439</v>
       </c>
       <c r="L19" t="n">
-        <v>78.86857583996851</v>
+        <v>78.86857583996853</v>
       </c>
       <c r="M19" t="n">
-        <v>83.15585503293241</v>
+        <v>83.15585503293242</v>
       </c>
       <c r="N19" t="n">
-        <v>81.17859466272414</v>
+        <v>81.17859466272417</v>
       </c>
       <c r="O19" t="n">
-        <v>74.98157130731506</v>
+        <v>74.98157130731508</v>
       </c>
       <c r="P19" t="n">
-        <v>64.15968772012599</v>
+        <v>64.159687720126</v>
       </c>
       <c r="Q19" t="n">
         <v>44.4208421219243</v>
       </c>
       <c r="R19" t="n">
-        <v>23.85251168548881</v>
+        <v>23.85251168548882</v>
       </c>
       <c r="S19" t="n">
-        <v>9.244897877291155</v>
+        <v>9.244897877291157</v>
       </c>
       <c r="T19" t="n">
         <v>2.266615546336382</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02893551761280491</v>
+        <v>0.02893551761280492</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="P2" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="M2" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77.19886752926243</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>352.3878357835377</v>
       </c>
       <c r="P3" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
         <v>461.3999057603342</v>
@@ -34950,16 +34950,16 @@
         <v>461.3999057603342</v>
       </c>
       <c r="O5" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>352.3878357835377</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="N8" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>85.46778899800312</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35342,10 +35342,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>5.82435761961338</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.04521578690905</v>
+        <v>11.04521578690906</v>
       </c>
       <c r="J11" t="n">
-        <v>70.95378870026119</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K11" t="n">
         <v>114.6696285257465</v>
       </c>
       <c r="L11" t="n">
-        <v>689.0451606376862</v>
+        <v>148.3149213440238</v>
       </c>
       <c r="M11" t="n">
         <v>170.22719346827</v>
       </c>
       <c r="N11" t="n">
+        <v>173.7389644575173</v>
+      </c>
+      <c r="O11" t="n">
         <v>689.0451606376862</v>
       </c>
-      <c r="O11" t="n">
-        <v>161.8679088411305</v>
-      </c>
       <c r="P11" t="n">
-        <v>689.0451606376862</v>
+        <v>173.2251840375674</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.18585115317565</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R11" t="n">
-        <v>39.25536565157984</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.613419238823301</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J12" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K12" t="n">
-        <v>79.77758388520263</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L12" t="n">
-        <v>554.528597248763</v>
+        <v>114.8742541108275</v>
       </c>
       <c r="M12" t="n">
         <v>137.2300999939551</v>
       </c>
       <c r="N12" t="n">
-        <v>689.0451606376862</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O12" t="n">
         <v>127.3777430772297</v>
@@ -35509,10 +35509,10 @@
         <v>99.05851180681324</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.02418432232255</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R12" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35579,10 +35579,10 @@
         <v>478.2930216695494</v>
       </c>
       <c r="N13" t="n">
-        <v>462.4831511031642</v>
+        <v>462.4831511031643</v>
       </c>
       <c r="O13" t="n">
-        <v>433.9998831050555</v>
+        <v>433.9998831050556</v>
       </c>
       <c r="P13" t="n">
         <v>357.6942452169957</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.04521578690905</v>
+        <v>11.04521578690906</v>
       </c>
       <c r="J14" t="n">
-        <v>70.95378870026119</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K14" t="n">
-        <v>114.6696285257465</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="L14" t="n">
-        <v>148.3149213440237</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="M14" t="n">
-        <v>689.0451606376862</v>
+        <v>273.6298863645511</v>
       </c>
       <c r="N14" t="n">
-        <v>618.5220404456815</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O14" t="n">
         <v>161.8679088411305</v>
@@ -35667,10 +35667,10 @@
         <v>132.4874721791957</v>
       </c>
       <c r="Q14" t="n">
-        <v>588.4025094251379</v>
+        <v>91.58543128096095</v>
       </c>
       <c r="R14" t="n">
-        <v>193.0317881543588</v>
+        <v>39.25536565157986</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.613419238823301</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J15" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K15" t="n">
-        <v>467.1482992482266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L15" t="n">
         <v>114.8742541108275</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>95.57730212373465</v>
+        <v>95.57730212373436</v>
       </c>
       <c r="K16" t="n">
         <v>290.4484113090493</v>
@@ -35816,10 +35816,10 @@
         <v>478.2930216695494</v>
       </c>
       <c r="N16" t="n">
-        <v>462.4831511031642</v>
+        <v>462.4831511031643</v>
       </c>
       <c r="O16" t="n">
-        <v>433.9998831050555</v>
+        <v>433.9998831050556</v>
       </c>
       <c r="P16" t="n">
         <v>357.6942452169957</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>11.04521578690905</v>
+        <v>11.04521578690906</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95378870026119</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K17" t="n">
-        <v>689.0451606376862</v>
+        <v>114.6696285257465</v>
       </c>
       <c r="L17" t="n">
-        <v>515.5395433644248</v>
+        <v>685.8697113465723</v>
       </c>
       <c r="M17" t="n">
-        <v>689.0451606376862</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N17" t="n">
         <v>173.7389644575173</v>
       </c>
       <c r="O17" t="n">
-        <v>161.8679088411305</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="P17" t="n">
         <v>132.4874721791957</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.58543128096093</v>
+        <v>91.58543128096095</v>
       </c>
       <c r="R17" t="n">
         <v>193.0317881543588</v>
@@ -35965,13 +35965,13 @@
         <v>334.2238251537001</v>
       </c>
       <c r="K18" t="n">
-        <v>88.1668208821367</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L18" t="n">
         <v>114.8742541108275</v>
       </c>
       <c r="M18" t="n">
-        <v>689.0451606376862</v>
+        <v>137.2300999939551</v>
       </c>
       <c r="N18" t="n">
         <v>143.2272277522205</v>
@@ -35983,7 +35983,7 @@
         <v>99.05851180681324</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.02418432232255</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R18" t="n">
         <v>122.134395553873</v>
@@ -36056,7 +36056,7 @@
         <v>462.4831511031643</v>
       </c>
       <c r="O19" t="n">
-        <v>433.9998831050555</v>
+        <v>433.9998831050556</v>
       </c>
       <c r="P19" t="n">
         <v>357.6942452169957</v>
@@ -36120,7 +36120,7 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K20" t="n">
         <v>114.6696285257465</v>
@@ -36132,19 +36132,19 @@
         <v>170.22719346827</v>
       </c>
       <c r="N20" t="n">
-        <v>689.0451606376862</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O20" t="n">
-        <v>223.2089390276586</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P20" t="n">
-        <v>132.4874721791957</v>
+        <v>656.4892746846377</v>
       </c>
       <c r="Q20" t="n">
-        <v>588.4025094251379</v>
+        <v>91.58543128096095</v>
       </c>
       <c r="R20" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J21" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K21" t="n">
-        <v>79.77758388520266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L21" t="n">
         <v>114.8742541108275</v>
@@ -36211,19 +36211,19 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N21" t="n">
-        <v>689.0451606376862</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O21" t="n">
         <v>127.3777430772297</v>
       </c>
       <c r="P21" t="n">
-        <v>538.7128549447488</v>
+        <v>99.05851180681324</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R21" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>466.6398682029139</v>
       </c>
       <c r="K23" t="n">
-        <v>114.6696285257465</v>
+        <v>873.169893942272</v>
       </c>
       <c r="L23" t="n">
-        <v>770.5428241034039</v>
+        <v>1125.642163392078</v>
       </c>
       <c r="M23" t="n">
-        <v>1222.088861841498</v>
+        <v>502.7446031469458</v>
       </c>
       <c r="N23" t="n">
         <v>173.7389644575173</v>
       </c>
       <c r="O23" t="n">
-        <v>1052.940332995955</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P23" t="n">
         <v>885.4964493004651</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R23" t="n">
         <v>193.0317881543588</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J24" t="n">
         <v>334.2238251537001</v>
       </c>
       <c r="K24" t="n">
-        <v>79.77758388520266</v>
+        <v>639.9818815258677</v>
       </c>
       <c r="L24" t="n">
         <v>114.8742541108275</v>
@@ -36451,16 +36451,16 @@
         <v>143.2272277522205</v>
       </c>
       <c r="O24" t="n">
-        <v>326.2161431021876</v>
+        <v>127.3777430772297</v>
       </c>
       <c r="P24" t="n">
         <v>99.05851180681324</v>
       </c>
       <c r="Q24" t="n">
-        <v>549.6050376242094</v>
+        <v>58.02418432232258</v>
       </c>
       <c r="R24" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J26" t="n">
-        <v>466.6398682029139</v>
+        <v>70.95378870026121</v>
       </c>
       <c r="K26" t="n">
-        <v>114.6696285257465</v>
+        <v>873.169893942272</v>
       </c>
       <c r="L26" t="n">
         <v>148.3149213440238</v>
@@ -36606,19 +36606,19 @@
         <v>170.22719346827</v>
       </c>
       <c r="N26" t="n">
-        <v>916.6904155150382</v>
+        <v>527.2139965108584</v>
       </c>
       <c r="O26" t="n">
-        <v>916.6904155150382</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P26" t="n">
-        <v>257.7881320390294</v>
+        <v>885.4964493004651</v>
       </c>
       <c r="Q26" t="n">
         <v>588.4025094251379</v>
       </c>
       <c r="R26" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J27" t="n">
-        <v>39.17080245714345</v>
+        <v>149.2252441769124</v>
       </c>
       <c r="K27" t="n">
         <v>79.77758388520266</v>
@@ -36685,7 +36685,7 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N27" t="n">
-        <v>276.9759177996782</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O27" t="n">
         <v>127.3777430772297</v>
@@ -36843,19 +36843,19 @@
         <v>170.22719346827</v>
       </c>
       <c r="N29" t="n">
-        <v>285.3043395109844</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O29" t="n">
-        <v>161.8679088411305</v>
+        <v>916.6904155150382</v>
       </c>
       <c r="P29" t="n">
-        <v>885.4964493004651</v>
+        <v>585.2799733214223</v>
       </c>
       <c r="Q29" t="n">
-        <v>588.4025094251379</v>
+        <v>91.58543128096095</v>
       </c>
       <c r="R29" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J30" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K30" t="n">
         <v>79.77758388520266</v>
@@ -36922,16 +36922,16 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N30" t="n">
-        <v>276.9759177996782</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O30" t="n">
         <v>127.3777430772297</v>
       </c>
       <c r="P30" t="n">
-        <v>844.2613904242662</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R30" t="n">
         <v>122.134395553873</v>
@@ -37068,31 +37068,31 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J32" t="n">
-        <v>178.2944478402582</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K32" t="n">
         <v>873.169893942272</v>
       </c>
       <c r="L32" t="n">
-        <v>148.3149213440238</v>
+        <v>916.6904155150382</v>
       </c>
       <c r="M32" t="n">
-        <v>170.22719346827</v>
+        <v>763.2431296161687</v>
       </c>
       <c r="N32" t="n">
-        <v>916.6904155150382</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O32" t="n">
         <v>161.8679088411305</v>
       </c>
       <c r="P32" t="n">
-        <v>885.4964493004651</v>
+        <v>132.4874721791957</v>
       </c>
       <c r="Q32" t="n">
         <v>91.58543128096095</v>
       </c>
       <c r="R32" t="n">
-        <v>193.0317881543588</v>
+        <v>39.25536565157986</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J33" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K33" t="n">
         <v>79.77758388520266</v>
@@ -37165,10 +37165,10 @@
         <v>127.3777430772297</v>
       </c>
       <c r="P33" t="n">
-        <v>844.2613904242662</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.7728743697803</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R33" t="n">
         <v>122.134395553873</v>
@@ -37305,31 +37305,31 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J35" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K35" t="n">
-        <v>689.0451606376862</v>
+        <v>126.0269037221835</v>
       </c>
       <c r="L35" t="n">
-        <v>672.8277368564511</v>
+        <v>148.3149213440238</v>
       </c>
       <c r="M35" t="n">
         <v>170.22719346827</v>
       </c>
       <c r="N35" t="n">
-        <v>689.0451606376862</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O35" t="n">
         <v>161.8679088411305</v>
       </c>
       <c r="P35" t="n">
-        <v>132.4874721791957</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R35" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>334.2238251537001</v>
       </c>
       <c r="K36" t="n">
-        <v>689.0451606376862</v>
+        <v>79.77758388520266</v>
       </c>
       <c r="L36" t="n">
         <v>114.8742541108275</v>
@@ -37402,13 +37402,13 @@
         <v>127.3777430772297</v>
       </c>
       <c r="P36" t="n">
-        <v>99.05851180681324</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R36" t="n">
-        <v>73.07111644205463</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J38" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K38" t="n">
         <v>114.6696285257465</v>
       </c>
       <c r="L38" t="n">
-        <v>159.9565577240976</v>
+        <v>148.3149213440238</v>
       </c>
       <c r="M38" t="n">
-        <v>689.0451606376862</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N38" t="n">
-        <v>173.7389644575173</v>
+        <v>681.9133177981314</v>
       </c>
       <c r="O38" t="n">
-        <v>689.0451606376862</v>
+        <v>161.8679088411305</v>
       </c>
       <c r="P38" t="n">
         <v>689.0451606376862</v>
@@ -37566,7 +37566,7 @@
         <v>91.58543128096095</v>
       </c>
       <c r="R38" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J39" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K39" t="n">
-        <v>79.77758388520266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L39" t="n">
         <v>114.8742541108275</v>
@@ -37633,19 +37633,19 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N39" t="n">
-        <v>567.0320862151654</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O39" t="n">
-        <v>689.0451606376862</v>
+        <v>127.3777430772297</v>
       </c>
       <c r="P39" t="n">
         <v>99.05851180681324</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R39" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J41" t="n">
-        <v>70.95378870026121</v>
+        <v>416.2661385964158</v>
       </c>
       <c r="K41" t="n">
         <v>689.0451606376862</v>
       </c>
       <c r="L41" t="n">
-        <v>669.3159658672038</v>
+        <v>689.0451606376862</v>
       </c>
       <c r="M41" t="n">
-        <v>689.0451606376862</v>
+        <v>170.22719346827</v>
       </c>
       <c r="N41" t="n">
         <v>173.7389644575173</v>
@@ -37803,7 +37803,7 @@
         <v>91.58543128096095</v>
       </c>
       <c r="R41" t="n">
-        <v>39.25536565157986</v>
+        <v>193.0317881543588</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J42" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K42" t="n">
-        <v>412.9112196646475</v>
+        <v>79.77758388520266</v>
       </c>
       <c r="L42" t="n">
         <v>114.8742541108275</v>
@@ -37870,16 +37870,16 @@
         <v>137.2300999939551</v>
       </c>
       <c r="N42" t="n">
-        <v>689.0451606376862</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O42" t="n">
         <v>127.3777430772297</v>
       </c>
       <c r="P42" t="n">
-        <v>99.05851180681324</v>
+        <v>167.6819561455918</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R42" t="n">
         <v>122.134395553873</v>
@@ -38016,28 +38016,28 @@
         <v>11.04521578690906</v>
       </c>
       <c r="J44" t="n">
-        <v>70.95378870026121</v>
+        <v>466.6398682029139</v>
       </c>
       <c r="K44" t="n">
-        <v>114.6696285257465</v>
+        <v>682.584592180674</v>
       </c>
       <c r="L44" t="n">
-        <v>689.045160637686</v>
+        <v>148.3149213440238</v>
       </c>
       <c r="M44" t="n">
         <v>170.22719346827</v>
       </c>
       <c r="N44" t="n">
-        <v>689.045160637686</v>
+        <v>173.7389644575173</v>
       </c>
       <c r="O44" t="n">
         <v>161.8679088411305</v>
       </c>
       <c r="P44" t="n">
-        <v>536.8691580071212</v>
+        <v>132.4874721791957</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.58543128096095</v>
+        <v>588.4025094251379</v>
       </c>
       <c r="R44" t="n">
         <v>193.0317881543588</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.613419238823305</v>
+        <v>29.30766756651203</v>
       </c>
       <c r="J45" t="n">
-        <v>39.17080245714345</v>
+        <v>334.2238251537001</v>
       </c>
       <c r="K45" t="n">
-        <v>79.77758388520266</v>
+        <v>148.4010282239813</v>
       </c>
       <c r="L45" t="n">
-        <v>689.045160637686</v>
+        <v>114.8742541108275</v>
       </c>
       <c r="M45" t="n">
         <v>137.2300999939551</v>
       </c>
       <c r="N45" t="n">
-        <v>554.5285972487636</v>
+        <v>143.2272277522205</v>
       </c>
       <c r="O45" t="n">
         <v>127.3777430772297</v>
@@ -38116,10 +38116,10 @@
         <v>99.05851180681324</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.02418432232258</v>
+        <v>549.6050376242094</v>
       </c>
       <c r="R45" t="n">
-        <v>15.61368819538232</v>
+        <v>122.134395553873</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>95.57730212373345</v>
+        <v>95.57730212373465</v>
       </c>
       <c r="K46" t="n">
         <v>290.4484113090493</v>
@@ -38195,7 +38195,7 @@
         <v>357.6942452169957</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.7038019610778</v>
+        <v>172.703801961078</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
